--- a/target/test-classes/RPM.xlsx
+++ b/target/test-classes/RPM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\prod_tms\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prod_tms\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFDF8EE-687B-4209-95E9-1219CB6A6AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8043AFE6-EC97-4D09-A533-2A1740FFA858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35100" yWindow="2190" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="4035" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,10 +112,10 @@
     <t>RPM SmartMed</t>
   </si>
   <si>
-    <t>demo</t>
-  </si>
-  <si>
     <t>CA-F77PUNMY</t>
+  </si>
+  <si>
+    <t>smartmed</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -485,7 +485,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>27</v>
@@ -548,7 +548,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
